--- a/Presentation/bin/Debug/Template/SinhVien_Template.xlsx
+++ b/Presentation/bin/Debug/Template/SinhVien_Template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teaching\Do an\Seminar_3Layer\Seminar_3Layer\3Layer_DongNH\Presentation\bin\Debug\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Đồ án 1\PharmacyManager\Presentation\bin\Debug\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661B21DA-E152-4029-8699-C85270F444C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB639BC2-137D-4FD6-B502-47AEFB2329FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F1EB785A-50F0-4033-A467-5CCDFB640544}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F1EB785A-50F0-4033-A467-5CCDFB640544}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,45 +25,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
-    <t>Giới tính</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Tên lớp</t>
-  </si>
-  <si>
-    <t>DANH SÁCH SINH VIÊN</t>
-  </si>
-  <si>
-    <t>Mã lớp</t>
+    <t>DANH SÁCH SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>Mã thuốc</t>
+  </si>
+  <si>
+    <t>Tên thuốc</t>
+  </si>
+  <si>
+    <t>Hạn sử dụng</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Giá bán</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,19 +124,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,85 +453,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA08F8F7-2549-4DCF-9BA8-C7F2C30ED1D8}">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="F8" s="1"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>